--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1961.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1961.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.015*"exchange" + 0.014*"import" + 0.013*"may" + 0.013*"payment" + 0.011*"currency" + 0.010*"account" + 0.010*"export" + 0.010*"bank" + 0.009*"foreign" + 0.008*"rate"</t>
-  </si>
-  <si>
-    <t>0.001*"import" + 0.001*"exchange" + 0.001*"currency" + 0.001*"rate" + 0.001*"export" + 0.001*"foreign" + 0.001*"payment" + 0.001*"country" + 0.001*"may" + 0.001*"account"</t>
-  </si>
-  <si>
-    <t>0.003*"exchange" + 0.003*"import" + 0.002*"foreign" + 0.002*"may" + 0.002*"country" + 0.002*"rate" + 0.002*"payment" + 0.002*"currency" + 0.002*"account" + 0.001*"bank"</t>
-  </si>
-  <si>
-    <t>0.002*"exchange" + 0.002*"may" + 0.001*"import" + 0.001*"payment" + 0.001*"currency" + 0.001*"account" + 0.001*"country" + 0.001*"foreign" + 0.001*"export" + 0.001*"rate"</t>
-  </si>
-  <si>
-    <t>0.022*"import" + 0.021*"exchange" + 0.016*"payment" + 0.015*"may" + 0.015*"account" + 0.014*"foreign" + 0.014*"currency" + 0.014*"export" + 0.013*"bank" + 0.012*"rate"</t>
+    <t>0.036*"u" + 0.021*"capital" + 0.019*"redistribution" + 0.018*"change" + 0.017*"per" + 0.016*"january" + 0.014*"egyptian" + 0.013*"region" + 0.013*"united" + 0.011*"february"</t>
+  </si>
+  <si>
+    <t>0.042*"foreign" + 0.031*"may" + 0.016*"exchange" + 0.016*"investment" + 0.014*"abroad" + 0.012*"currency" + 0.012*"year" + 0.011*"agreement" + 0.011*"note" + 0.011*"travel"</t>
+  </si>
+  <si>
+    <t>0.052*"payment" + 0.051*"account" + 0.039*"country" + 0.031*"currency" + 0.031*"import" + 0.025*"area" + 0.024*"may" + 0.023*"sterling" + 0.021*"make" + 0.019*"nonresident"</t>
+  </si>
+  <si>
+    <t>0.053*"import" + 0.053*"export" + 0.032*"per" + 0.028*"rate" + 0.027*"cent" + 0.025*"proceeds" + 0.021*"license" + 0.020*"good" + 0.016*"exchange" + 0.016*"market"</t>
+  </si>
+  <si>
+    <t>0.066*"exchange" + 0.056*"bank" + 0.040*"fund" + 0.032*"monetary" + 0.030*"international" + 0.030*"control" + 0.024*"rate" + 0.024*"dollar" + 0.017*"authorized" + 0.014*"transaction"</t>
   </si>
 </sst>
 </file>
